--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1306.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1306.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.005717268017865</v>
+        <v>1.093010187149048</v>
       </c>
       <c r="B1">
-        <v>2.51975716443664</v>
+        <v>2.174811124801636</v>
       </c>
       <c r="C1">
-        <v>5.541899699473142</v>
+        <v>9.596397399902344</v>
       </c>
       <c r="D1">
-        <v>2.21048390671809</v>
+        <v>1.123750448226929</v>
       </c>
       <c r="E1">
-        <v>1.258196162342533</v>
+        <v>1.210295438766479</v>
       </c>
     </row>
   </sheetData>
